--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -46,28 +46,6 @@
     <t>Loads_TC002</t>
   </si>
   <si>
-    <t>Validate whehter Global admin is able to add new user on following conditions
-1) Enter valid user id and Password and click Login button
-2) Click on Add New Load button from Load menu
-3) Enter valid details in all required field and click Save button
-4) Now loads are saved successfully
-5) Upload an Origin and Destination ticket image or PDF document for corresponding load
-6) Observe Ready to Submit Load icon in grid should change to green color
-7) Click on Submit Load button
-8) Select any option and click Submit button</t>
-  </si>
-  <si>
-    <t>Validate whehter Global admin is able to add new user using Shipper platform on following conditions
-a.) Launch and login applcation as Global admin
-b.) Click on add new load button.
-C.) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity
-d.) click on save and search for record in AG grid.
-e.) click on Edit and set Shipper contact and click on save.
-f.) Search for edited record in AG grid
-g.) Click on delete button.
-h.) Check whether record exist in AG grid after delete.</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -83,46 +61,69 @@
     <t>Invitation sent successfully</t>
   </si>
   <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as global admin
-2) Click on Users Menu
-3) Click on Add User button
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
-6) Select any one value from Carrier Drop Down field
+    <t>Invitation cancelled successfully</t>
+  </si>
+  <si>
+    <t>Invitation accepted successfully</t>
+  </si>
+  <si>
+    <t>User_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whehter Global admin is able to add new user using Shipper platform on following conditions.
+a) Launch and login applcation as Global admin.
+b) Click on add new load button.
+c) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity.
+d) click on save and search for record in AG grid.
+e) click on Edit and set Shipper contact and click on save.
+f) Search for edited record in AG grid.
+g) Click on delete button.
+h) Check whether record exist in AG grid after delete.
+</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
 7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as global admin
-2) Click on Users Menu
-3) Click on Add User button
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
-6) Select any one value from Carrier Drop Down field
+8) Clickon Resend Invitation and Check if invitation sent again.</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
 7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon cancel invitation and check if invitation cancelled.</t>
-  </si>
-  <si>
-    <t>Invitation cancelled successfully</t>
-  </si>
-  <si>
-    <t>Invitation accepted successfully</t>
-  </si>
-  <si>
-    <t>User_TC003</t>
-  </si>
-  <si>
-    <t>To validate invite via email for Shipper Admin  based on following conditions
-1) Launch application and login as global admin
-2) Click on Users Menu
-3) Click on Add User button
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
-6) Select any one value from Carrier Drop Down field
+8) Clickon cancel invitation and check if invitation cancelled.</t>
+  </si>
+  <si>
+    <t>To validate invite via email for Shipper Admin  based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
 7) Click on Invite button and check invitation email sent successfully.
-8.) Accet email invitation and check if invitation acceted.</t>
+8) Accet email invitation and check if invitation acceted.</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new user on following conditions.
+1) Enter valid user id and Password and click Login button.
+2) Click on Add New Load button from Load menu.
+3) Enter valid details in all required field and click Save button.
+4) Now loads are saved successfully.
+5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
+6) Observe Ready to Submit Load icon in grid should change to green color.
+7) Click on Submit Load button.
+8) Select any option and click Submit button.</t>
   </si>
 </sst>
 </file>
@@ -511,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +536,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -549,13 +550,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -563,41 +564,41 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="180.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -606,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3"/>
     </row>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -595,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -52,15 +52,34 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Record not found</t>
-  </si>
-  <si>
     <t>Webtable validated successfully</t>
   </si>
   <si>
     <t>Invitation sent successfully</t>
   </si>
   <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin
+2) Click on Users Menu
+3) Click on Add User button
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
+6) Select any one value from Carrier Drop Down field
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin
+2) Click on Users Menu
+3) Click on Add User button
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
+6) Select any one value from Carrier Drop Down field
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon cancel invitation and check if invitation cancelled.</t>
+  </si>
+  <si>
     <t>Invitation cancelled successfully</t>
   </si>
   <si>
@@ -70,60 +89,65 @@
     <t>User_TC003</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate whehter Global admin is able to add new user using Shipper platform on following conditions.
-a) Launch and login applcation as Global admin.
-b) Click on add new load button.
-c) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity.
-d) click on save and search for record in AG grid.
-e) click on Edit and set Shipper contact and click on save.
-f) Search for edited record in AG grid.
-g) Click on delete button.
-h) Check whether record exist in AG grid after delete.
-</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu.
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
+    <t>To validate invite via email for Shipper Admin  based on following conditions
+1) Launch application and login as global admin
+2) Click on Users Menu
+3) Click on Add User button
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
+6) Select any one value from Carrier Drop Down field
 7) Click on Invite button and check invitation email sent successfully.
-8) Clickon Resend Invitation and Check if invitation sent again.</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu.
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8) Clickon cancel invitation and check if invitation cancelled.</t>
-  </si>
-  <si>
-    <t>To validate invite via email for Shipper Admin  based on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu.
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8) Accet email invitation and check if invitation acceted.</t>
-  </si>
-  <si>
-    <t>Validate whehter Global admin is able to add new user on following conditions.
-1) Enter valid user id and Password and click Login button.
-2) Click on Add New Load button from Load menu.
-3) Enter valid details in all required field and click Save button.
-4) Now loads are saved successfully.
-5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
-6) Observe Ready to Submit Load icon in grid should change to green color.
-7) Click on Submit Load button.
-8) Select any option and click Submit button.</t>
+8.) Accet email invitation and check if invitation acceted.</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier user can add load and ready to submit load on following conditions
+1) Enter valid user id and Password and click Login button
+2) Click on Add New Load button from Load menu
+3) Enter valid details in all required field and click Save button
+4) Now loads are saved successfully
+5) Upload an Origin and Destination ticket image or PDF document for corresponding load
+6) Observe Ready to Submit Load icon in grid should change to green color
+7) Click on Submit Load button
+8) Select any option and click Submit button</t>
+  </si>
+  <si>
+    <t>Validate Forgot password based on following conditions:
+1. Launch application and Set UserName
+2. Clickon Forgot Password.
+3. Verify email and reset password
+4. Login with new password.
+5. Check whether user is able to login with new password.</t>
+  </si>
+  <si>
+    <t>Password reset successfully</t>
+  </si>
+  <si>
+    <t>User_TC004</t>
+  </si>
+  <si>
+    <t>User_TC005</t>
+  </si>
+  <si>
+    <t>Validate delete any user based on following conditions:
+1. Launch application 
+2. Login as global admin
+3. Go to Users and search accepted user(except global admin)
+4. Clickon delete
+5. Check whether deleted user exist.</t>
+  </si>
+  <si>
+    <t>User deleted successfully</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new load using Shipper platform on following conditions
+a.) Launch and login applcation as Global admin
+b.) Click on add new load button.
+C.) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity
+d.) click on save and search for record in AG grid.
+e.) click on Edit and set Shipper contact and click on save.
+f.) Search for edited record in AG grid
+g.) Click on delete button.
+h.) Check whether record exist in AG grid after delete.</t>
   </si>
 </sst>
 </file>
@@ -510,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,13 +574,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -564,58 +588,102 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="180.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>User_TC001</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>NO</t>
@@ -148,6 +145,26 @@
 f.) Search for edited record in AG grid
 g.) Click on delete button.
 h.) Check whether record exist in AG grid after delete.</t>
+  </si>
+  <si>
+    <t>Loads_TC003</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier user can add Scoular loads for payment using full submit
+1) Enter valid user id and Password and click Login button.
+2) Click on Add New Load button from Load menu.
+3) Enter valid details in all required field and click Save button
+4) Now loads are saved successfully.
+5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
+6) Observe Ready to Submit Load icon in grid should change to green color.
+7) Click on Submit Load button.
+8) Select any option and click Submit button.</t>
+  </si>
+  <si>
+    <t>Scoular loads validated successfully</t>
   </si>
 </sst>
 </file>
@@ -218,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,6 +245,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,13 +580,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -574,116 +594,130 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -165,6 +165,20 @@
   </si>
   <si>
     <t>Scoular loads validated successfully</t>
+  </si>
+  <si>
+    <t>Loads_TC004</t>
+  </si>
+  <si>
+    <t>Validate invoice generation for non-Scoular load
+1) Enter valid user id and Password and click Login button.
+2) Click on Add New Load button from Load menu.
+3) Enter valid details in all required field and click Save button
+4) Now loads are saved successfully.
+5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
+6) Observe Ready to Submit Load icon in grid should change to green color.
+7) Click on Generate Invoice button.
+8) Select any option and click Generate button.</t>
   </si>
 </sst>
 </file>
@@ -554,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +733,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>User_TC001</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>User_TC002</t>
   </si>
   <si>
@@ -49,34 +46,9 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Webtable validated successfully</t>
-  </si>
-  <si>
     <t>Invitation sent successfully</t>
   </si>
   <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as global admin
-2) Click on Users Menu
-3) Click on Add User button
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
-6) Select any one value from Carrier Drop Down field
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions
-1) Launch application and login as global admin
-2) Click on Users Menu
-3) Click on Add User button
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
-6) Select any one value from Carrier Drop Down field
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon cancel invitation and check if invitation cancelled.</t>
-  </si>
-  <si>
     <t>Invitation cancelled successfully</t>
   </si>
   <si>
@@ -86,36 +58,6 @@
     <t>User_TC003</t>
   </si>
   <si>
-    <t>To validate invite via email for Shipper Admin  based on following conditions
-1) Launch application and login as global admin
-2) Click on Users Menu
-3) Click on Add User button
-4) Enter valid details in required field (Full Name, Email)
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) 
-6) Select any one value from Carrier Drop Down field
-7) Click on Invite button and check invitation email sent successfully.
-8.) Accet email invitation and check if invitation acceted.</t>
-  </si>
-  <si>
-    <t>Validate whehter carrier user can add load and ready to submit load on following conditions
-1) Enter valid user id and Password and click Login button
-2) Click on Add New Load button from Load menu
-3) Enter valid details in all required field and click Save button
-4) Now loads are saved successfully
-5) Upload an Origin and Destination ticket image or PDF document for corresponding load
-6) Observe Ready to Submit Load icon in grid should change to green color
-7) Click on Submit Load button
-8) Select any option and click Submit button</t>
-  </si>
-  <si>
-    <t>Validate Forgot password based on following conditions:
-1. Launch application and Set UserName
-2. Clickon Forgot Password.
-3. Verify email and reset password
-4. Login with new password.
-5. Check whether user is able to login with new password.</t>
-  </si>
-  <si>
     <t>Password reset successfully</t>
   </si>
   <si>
@@ -125,32 +67,7 @@
     <t>User_TC005</t>
   </si>
   <si>
-    <t>Validate delete any user based on following conditions:
-1. Launch application 
-2. Login as global admin
-3. Go to Users and search accepted user(except global admin)
-4. Clickon delete
-5. Check whether deleted user exist.</t>
-  </si>
-  <si>
     <t>User deleted successfully</t>
-  </si>
-  <si>
-    <t>Validate whehter Global admin is able to add new load using Shipper platform on following conditions
-a.) Launch and login applcation as Global admin
-b.) Click on add new load button.
-C.) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity
-d.) click on save and search for record in AG grid.
-e.) click on Edit and set Shipper contact and click on save.
-f.) Search for edited record in AG grid
-g.) Click on delete button.
-h.) Check whether record exist in AG grid after delete.</t>
-  </si>
-  <si>
-    <t>Loads_TC003</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>Validate whehter carrier user can add Scoular loads for payment using full submit
@@ -164,6 +81,81 @@
 8) Select any option and click Submit button.</t>
   </si>
   <si>
+    <t>To validate invite via email based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon cancel invitation and check if invitation cancelled.</t>
+  </si>
+  <si>
+    <t>To validate invite via email for Shipper Admin  based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu.
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email)
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Accet email invitation and check if invitation acceted.</t>
+  </si>
+  <si>
+    <t>Validate Forgot password based on following conditions:
+1. Launch application and Set UserName.
+2. Clickon Forgot Password.
+3. Verify email and reset password.
+4. Login with new password.
+5. Check whether user is able to login with new password.</t>
+  </si>
+  <si>
+    <t>Validate delete any  user based on following conditions:
+1. Launch application .
+2. Login as global admin.
+3. Go to Users and search accepted user(except global admin)
+4. Clickon delete.
+5. Check whether deleted user exist.</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new load using Shipper platform on following conditions.
+a.) Launch and login applcation as Global admin
+b.) Click on add new load button.
+C.) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity.
+d.) click on save and search for record in AG grid.
+e.) click on Edit and set Shipper contact and click on save.
+f.) Search for edited record in AG grid
+g.) Click on delete button.
+h.) Check whether record exist in AG grid after delete.</t>
+  </si>
+  <si>
+    <t>Load submitted successfully</t>
+  </si>
+  <si>
+    <t>Load added successfully</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Loads_TC003</t>
+  </si>
+  <si>
     <t>Scoular loads validated successfully</t>
   </si>
   <si>
@@ -179,6 +171,9 @@
 6) Observe Ready to Submit Load icon in grid should change to green color.
 7) Click on Generate Invoice button.
 8) Select any option and click Generate button.</t>
+  </si>
+  <si>
+    <t>Webtable validated successfully</t>
   </si>
 </sst>
 </file>
@@ -568,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,13 +589,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -608,143 +603,129 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -68,17 +68,6 @@
   </si>
   <si>
     <t>User deleted successfully</t>
-  </si>
-  <si>
-    <t>Validate whehter carrier user can add Scoular loads for payment using full submit
-1) Enter valid user id and Password and click Login button.
-2) Click on Add New Load button from Load menu.
-3) Enter valid details in all required field and click Save button
-4) Now loads are saved successfully.
-5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
-6) Observe Ready to Submit Load icon in grid should change to green color.
-7) Click on Submit Load button.
-8) Select any option and click Submit button.</t>
   </si>
   <si>
     <t>To validate invite via email based on following conditions.
@@ -147,16 +136,10 @@
     <t>Load added successfully</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>Loads_TC003</t>
-  </si>
-  <si>
-    <t>Scoular loads validated successfully</t>
   </si>
   <si>
     <t>Loads_TC004</t>
@@ -174,6 +157,43 @@
   </si>
   <si>
     <t>Webtable validated successfully</t>
+  </si>
+  <si>
+    <t>Non-Scoular Load Paid Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whehter carrier user can add Scoular loads for payment using full submit
+1) Enter valid user id and Password and click Login button.
+2) Click on Add New Load button from Load menu.
+3) Enter valid details in all required field and click Save button
+4) Now loads are saved successfully.
+5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
+6) Observe Ready to Submit Load icon in grid should change to green color.
+7) Click on Submit Load button.
+8) Select any option and click Submit button.
+</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier user can add Scoular loads for payment using full submit.
+1) Enter valid user id and Password and click Login button.
+2) Click on Add New Load button from Load menu.
+3) Enter valid details in all required field and click Save button.
+4) Now loads are saved successfully.
+5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
+6) Observe Ready to Submit Load icon in grid should change to green color.
+7) Click on Generate Invoice button.
+8) Select any option and click Generate button.
+9)Select load change the status from Submitted to Paid.
+10)Select any loads.
+11) Click Duplicate button.
+12) Now Duplicate popup message has been displayed.
+13) Enter number of loads to copied in pop up window.
+14) Click on Submit button .
+15) Select any loads.
+16) Click Delete button.</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -565,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -617,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -631,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -645,10 +665,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -660,10 +680,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -675,57 +695,57 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -156,9 +156,6 @@
 8) Select any option and click Generate button.</t>
   </si>
   <si>
-    <t>Webtable validated successfully</t>
-  </si>
-  <si>
     <t>Non-Scoular Load Paid Successfully</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Load Approved successfully</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -725,13 +725,13 @@
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
@@ -742,10 +742,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -68,17 +68,6 @@
   </si>
   <si>
     <t>User deleted successfully</t>
-  </si>
-  <si>
-    <t>To validate invite via email based on following conditions.
-1) Launch application and login as global admin.
-2) Click on Users Menu.
-3) Click on Add User button.
-4) Enter valid details in required field (Full Name, Email).
-5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
-6) Select any one value from Carrier Drop Down field.
-7) Click on Invite button and check invitation email sent successfully.
-8.) Clickon Resend Invitation and Check if invitation sent again.</t>
   </si>
   <si>
     <t>To validate invite via email based on following conditions
@@ -119,17 +108,6 @@
 5. Check whether deleted user exist.</t>
   </si>
   <si>
-    <t>Validate whehter Global admin is able to add new load using Shipper platform on following conditions.
-a.) Launch and login applcation as Global admin
-b.) Click on add new load button.
-C.) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity.
-d.) click on save and search for record in AG grid.
-e.) click on Edit and set Shipper contact and click on save.
-f.) Search for edited record in AG grid
-g.) Click on delete button.
-h.) Check whether record exist in AG grid after delete.</t>
-  </si>
-  <si>
     <t>Load submitted successfully</t>
   </si>
   <si>
@@ -157,18 +135,6 @@
   </si>
   <si>
     <t>Non-Scoular Load Paid Successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate whehter carrier user can add Scoular loads for payment using full submit
-1) Enter valid user id and Password and click Login button.
-2) Click on Add New Load button from Load menu.
-3) Enter valid details in all required field and click Save button
-4) Now loads are saved successfully.
-5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
-6) Observe Ready to Submit Load icon in grid should change to green color.
-7) Click on Submit Load button.
-8) Select any option and click Submit button.
-</t>
   </si>
   <si>
     <t>Validate whehter carrier user can add Scoular loads for payment using full submit.
@@ -194,6 +160,53 @@
   </si>
   <si>
     <t>Load Approved successfully</t>
+  </si>
+  <si>
+    <t>Loads_TC005</t>
+  </si>
+  <si>
+    <t>Dispatch sent successfully and carrier has control over load.</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new load using Shipper platform on following conditions.
+a) Launch and login applcation as Global admin
+b) Click on add new load button.
+C) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity.
+d) click on save and search for record in AG grid.
+e) click on Edit and set Shipper contact and click on save.
+f) Search for edited record in AG grid
+g) Click on delete button.
+h) Check whether record exist in AG grid after delete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whehter carrier user can add Scoular loads for payment using full submit.
+1) Enter valid user id and Password and click Login button.
+2) Click on Add New Load button from Load menu.
+3) Enter valid details in all required field and click Save button
+4) Now loads are saved successfully.
+5) Upload an Origin and Destination ticket image or PDF document for corresponding load.
+6) Observe Ready to Submit Load icon in grid should change to green color.
+7) Click on Submit Load button.
+8) Select any option and click Submit button.
+</t>
+  </si>
+  <si>
+    <t>Validate the Dispatch Schedule loads to respective Carrier.
+1) Enter valid user id and Password and click Login button.
+2) Click on Add New Load button from Load menu.
+3) Enter valid details in required field and click Dispatch button.
+4) Now Loads are Dispatched to corresponding Carrier.</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions.
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select any one role (Carrier, Shipper Admin, Shipper User, Driver (Full) and Driver (Limited) .
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.</t>
   </si>
 </sst>
 </file>
@@ -583,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,10 +636,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -637,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -651,10 +664,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -665,10 +678,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -680,10 +693,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -695,13 +708,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -710,42 +723,56 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -696,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -207,6 +207,9 @@
 6) Select any one value from Carrier Drop Down field.
 7) Click on Invite button and check invitation email sent successfully.
 8.) Clickon Resend Invitation and Check if invitation sent again.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -667,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -696,7 +699,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -711,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -726,7 +729,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -741,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>28</v>
@@ -755,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -769,7 +772,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>33</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -156,9 +156,6 @@
 16) Click Delete button.</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Load Approved successfully</t>
   </si>
   <si>
@@ -209,7 +206,7 @@
 8.) Clickon Resend Invitation and Check if invitation sent again.</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -601,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,10 +636,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -711,10 +708,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -726,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -744,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>28</v>
@@ -758,24 +755,24 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -206,7 +206,19 @@
 8.) Clickon Resend Invitation and Check if invitation sent again.</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Loads_TC006</t>
+  </si>
+  <si>
+    <t>Validate the View PDF.
+1) Enter valid user id and Password and click Login button.
+2) Observe loads are displayed in Load grid.
+3) Select one or more loads and click view pdf button 1st download pdf then 2nd send via email.</t>
+  </si>
+  <si>
+    <t>Load able to download from View PDF</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +723,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -726,7 +738,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -741,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>28</v>
@@ -755,7 +767,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -769,10 +781,24 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Load added successfully</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Loads_TC003</t>
@@ -209,16 +206,93 @@
     <t>Loads_TC006</t>
   </si>
   <si>
-    <t>Validate the View PDF.
+    <t>Load Returned successfully</t>
+  </si>
+  <si>
+    <t>Loads_TC007</t>
+  </si>
+  <si>
+    <t>Import Done Successfully</t>
+  </si>
+  <si>
+    <t>Validate the View PDF and Returned the load.
 1) Enter valid user id and Password and click Login button.
 2) Observe loads are displayed in Load grid.
-3) Select one or more loads and click view pdf button 1st download pdf then 2nd send via email.</t>
-  </si>
-  <si>
-    <t>Load able to download from View PDF</t>
-  </si>
-  <si>
-    <t>YES</t>
+3) Select one or more loads and click Import button.
+4) Upload the excel sheet .
+5) Finish the load.</t>
+  </si>
+  <si>
+    <t>Validate the View PDF and Returned the load.
+1) Enter valid user id and Password and click Login button.
+2) Observe loads are displayed in Load grid.
+3) Select one or more loads and click view pdf button 1st download pdf then 2nd send via email.
+4) Login as Shipper Admin. 
+5) Select the Submitted Load.
+6) Click on Edit and Returned the load.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>User_TC006</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as global admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC007</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper user.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC008</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as shipper  admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>User_TC009</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as Carrier.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter valid details in required field (Full Name, Email).
+5) Select role shipper admin.
+6) Select any one value from Carrier Drop Down field.
+7) Click on Invite button and check invitation email sent successfully.
+8.) Clickon Resend Invitation and Check if invitation sent again.
+9.) CLick on cancel invite and check if invitation cancelled</t>
   </si>
 </sst>
 </file>
@@ -608,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -665,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -679,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -693,14 +767,14 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -708,96 +782,170 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -232,9 +232,6 @@
 6) Click on Edit and Returned the load.</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>User_TC006</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
 7) Click on Invite button and check invitation email sent successfully.
 8.) Clickon Resend Invitation and Check if invitation sent again.
 9.) CLick on cancel invite and check if invitation cancelled</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -739,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -753,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -791,13 +791,13 @@
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -806,13 +806,13 @@
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -857,7 +857,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -872,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -887,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -901,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -915,7 +915,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -929,7 +929,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -943,7 +943,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Loads_TC008</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +731,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -739,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -753,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -767,7 +773,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -782,7 +788,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -797,7 +803,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -812,7 +818,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -827,7 +833,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -842,7 +848,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -857,7 +863,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -872,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -901,7 +907,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -915,7 +921,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -929,7 +935,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -943,9 +949,23 @@
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -218,14 +218,6 @@
     <t>Validate the View PDF and Returned the load.
 1) Enter valid user id and Password and click Login button.
 2) Observe loads are displayed in Load grid.
-3) Select one or more loads and click Import button.
-4) Upload the excel sheet .
-5) Finish the load.</t>
-  </si>
-  <si>
-    <t>Validate the View PDF and Returned the load.
-1) Enter valid user id and Password and click Login button.
-2) Observe loads are displayed in Load grid.
 3) Select one or more loads and click view pdf button 1st download pdf then 2nd send via email.
 4) Login as Shipper Admin. 
 5) Select the Submitted Load.
@@ -299,6 +291,33 @@
   </si>
   <si>
     <t>Loads_TC008</t>
+  </si>
+  <si>
+    <t>Loads_TC009</t>
+  </si>
+  <si>
+    <t>Validate the Import File using Shipper Admin.
+1) Enter valid user id and Password and click Login button.
+2) Observe loads are displayed in Load grid.
+3) Select one or more loads and click Import button.
+4) Upload the excel sheet .
+5) Finish the load.</t>
+  </si>
+  <si>
+    <t>Validate the Import File using Global Admin.
+1) Enter valid user id and Password and click Login button.
+2) Observe loads are displayed in Load grid.
+3) Select one or more loads and click Import button.
+4) Upload the excel sheet .
+5) Finish the load.</t>
+  </si>
+  <si>
+    <t>Validate the Import File using Shipper User.
+1) Enter valid user id and Password and click Login button.
+2) Observe loads are displayed in Load grid.
+3) Select one or more loads and click Import button.
+4) Upload the excel sheet .
+5) Finish the load.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +750,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -745,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -759,7 +778,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -773,7 +792,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -788,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -797,13 +816,13 @@
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -812,13 +831,13 @@
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -827,13 +846,13 @@
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -842,13 +861,13 @@
     </row>
     <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -863,7 +882,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -878,7 +897,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -893,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -907,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -921,7 +940,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -932,10 +951,10 @@
         <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -946,10 +965,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -957,15 +976,29 @@
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -318,6 +318,77 @@
 3) Select one or more loads and click Import button.
 4) Upload the excel sheet .
 5) Finish the load.</t>
+  </si>
+  <si>
+    <t>Carrier_TC001</t>
+  </si>
+  <si>
+    <t>AddShippers_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a.) Launch and login applcation as Global admin
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Set status as inactive and check whether the shipper contact is disbaled.</t>
+  </si>
+  <si>
+    <t>Shipper added successfully</t>
+  </si>
+  <si>
+    <t>EditShippers_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a.) Launch and login applcation as Carrier.
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Edit record and set status as inactive.
+h.) Check the shipper is inactive
+i.) Edit status as Active and create load with new shipper.</t>
+  </si>
+  <si>
+    <t>Shipper edited successfully</t>
+  </si>
+  <si>
+    <t>ActivateShippers_TC003</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a.) Launch and login applcation as Global admin
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on save.
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if details dispalyed corrrect.
+g.) Set status as inactive and check whether the shipper contact is disbaled.
+h.) Edit record and set status as active.
+i.) Check whether the shipper is activated.</t>
+  </si>
+  <si>
+    <t>Shipper activated successfully</t>
+  </si>
+  <si>
+    <t>Carrier Validated Successfully</t>
+  </si>
+  <si>
+    <t>Validate the Carrier.
+1) Login as Shipper Admin/User or Global Admin and create Company.
+2) Login as Global Admin and Accept Company.
+3) Login as Shipper Admin/User or Global Admin and send request to user.
+4) Login as Carrier and Validate the Request .
+5) Login as Shipper Admin/User or Global Admin and Cancel the  Request.
+6)Login as Carrier and validate Cancel request.
+7)Login as Shipper Admin/User or Global Admin and Re-Send Request.
+8)Login as Carrier and Accept the request.
+9)Verify the Carrier on Load Screen.
+10)Login as Global Admin and delete the User and Carrier.</t>
   </si>
 </sst>
 </file>
@@ -707,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +983,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1000,6 +1071,62 @@
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -389,6 +389,22 @@
 8)Login as Carrier and Accept the request.
 9)Verify the Carrier on Load Screen.
 10)Login as Global Admin and delete the User and Carrier.</t>
+  </si>
+  <si>
+    <t>Shipper Contact Validated Successfully</t>
+  </si>
+  <si>
+    <t>ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>Validate Shipper Contact.
+a) Launch and login applcation.
+b)Open Shipper Contact Panel.
+c) Click on add new Shipper Contact button.
+d) Fill Mandatory Details and click on Add.
+e) Verify Newly added Shipper contact in Grid.
+f) Edit the Email id and verify in grid.
+g)Inactivate the Shipper Contact.</t>
   </si>
 </sst>
 </file>
@@ -778,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1097,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>66</v>
@@ -1127,6 +1143,20 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -405,6 +405,9 @@
 e) Verify Newly added Shipper contact in Grid.
 f) Edit the Email id and verify in grid.
 g)Inactivate the Shipper Contact.</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +588,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +840,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -969,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1097,7 +1100,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>66</v>
@@ -1111,7 +1114,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>59</v>
@@ -1125,7 +1128,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>62</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -407,7 +407,18 @@
 g)Inactivate the Shipper Contact.</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Settings_TC001</t>
+  </si>
+  <si>
+    <t>Password Change Successfully</t>
+  </si>
+  <si>
+    <t>Validate Change Password.
+a) Launch and login applcation.
+b)Open Settings Panel.
+c) Click on Change Password button.
+d) Fill Mandatory Details and click on Submit.
+e) Verify Newly change password by Re-Login.</t>
   </si>
 </sst>
 </file>
@@ -553,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,7 +599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +851,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +983,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1100,7 +1111,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>66</v>
@@ -1114,7 +1125,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>59</v>
@@ -1128,7 +1139,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>62</v>
@@ -1156,10 +1167,24 @@
         <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -419,6 +419,46 @@
 c) Click on Change Password button.
 d) Fill Mandatory Details and click on Submit.
 e) Verify Newly change password by Re-Login.</t>
+  </si>
+  <si>
+    <t>AddCommodity_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) Set Commodity name, upper limit, lower limit and pounds. 
+d) click on save.
+e) Customize Commodity webtable with required columns.
+f) Search for record and check if details dispalyed corrrect.
+g) Select record and click on delete button.
+h) check whether record deleted successfully.</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Commodity added and deleted successfully</t>
+  </si>
+  <si>
+    <t>EditCommodity_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a) Launch and login applcation as Global admin
+b) Goto commodities and Click on add new commodity button.
+C) Set Commodity name, upper limit, lower limit and pounds. 
+d) click on save.
+e) Customize Commodity webtable with required columns.
+f) Search for record and check if details dispalyed corrrect.
+g) Select record and edit with valid details.
+h) check whether record edited successfully.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Commodity added and edited successfully</t>
   </si>
 </sst>
 </file>
@@ -489,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,6 +543,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1157,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>66</v>
@@ -1181,10 +1227,38 @@
         <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -282,9 +285,6 @@
 7) Click on Invite button and check invitation email sent successfully.
 8.) Clickon Resend Invitation and Check if invitation sent again.
 9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>No</t>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -925,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -954,7 +954,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -969,7 +969,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -984,7 +984,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -999,7 +999,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1014,7 +1014,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1029,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1044,7 +1044,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1059,7 +1059,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1073,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1087,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1112,10 +1112,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1151,117 +1151,118 @@
     </row>
     <row r="20" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="C27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>81</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -455,10 +455,10 @@
 h) check whether record edited successfully.</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Commodity added and edited successfully</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1258,7 +1258,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1059,7 +1059,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -610,7 +610,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,7 +645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1059,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -610,7 +610,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,7 +645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1143,7 +1143,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1029,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1044,7 +1044,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1059,7 +1059,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1073,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1087,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1115,7 +1115,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1129,7 +1129,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1157,7 +1157,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1213,7 +1213,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1227,7 +1227,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -433,9 +433,6 @@
 f) Search for record and check if details dispalyed corrrect.
 g) Select record and click on delete button.
 h) check whether record deleted successfully.</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Commodity added and deleted successfully</t>
@@ -856,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1026,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1044,7 +1041,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1059,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1073,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1087,7 +1084,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1101,7 +1098,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1115,7 +1112,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1129,7 +1126,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1143,7 +1140,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1157,7 +1154,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1213,7 +1210,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1227,7 +1224,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1241,24 +1238,24 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -853,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,8 +1028,8 @@
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>79</v>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1040,8 +1043,8 @@
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>79</v>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1055,8 +1058,8 @@
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>79</v>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1069,8 +1072,8 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1083,8 +1086,8 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>79</v>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1097,8 +1100,8 @@
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
+      <c r="C16" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1111,8 +1114,8 @@
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1125,8 +1128,8 @@
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1139,8 +1142,8 @@
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>79</v>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1167,7 +1170,7 @@
       <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1181,7 +1184,7 @@
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1210,7 +1213,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1238,7 +1241,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1252,7 +1255,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -455,10 +455,16 @@
     <t>Commodity added and edited successfully</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Chat Validated successfully</t>
+  </si>
+  <si>
+    <t>Validate Chat</t>
+  </si>
+  <si>
+    <t>Chat_With_Carrier_TC001</t>
   </si>
 </sst>
 </file>
@@ -854,15 +860,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
@@ -1157,7 +1163,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1226,8 +1232,8 @@
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>79</v>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1241,7 +1247,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1261,8 +1267,22 @@
         <v>78</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -461,10 +461,38 @@
     <t>Chat Validated successfully</t>
   </si>
   <si>
-    <t>Validate Chat</t>
-  </si>
-  <si>
     <t>Chat_With_Carrier_TC001</t>
+  </si>
+  <si>
+    <t>Group_Chat_TC004</t>
+  </si>
+  <si>
+    <t>Chat_With_Shipper_Admin_TC002</t>
+  </si>
+  <si>
+    <t>Chat_With_Shipper_User_TC003</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Carrier.
+1) Enter valid user id and Password and click Login button in Carrier User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and enter message then .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure message is displayed notification in Chat window.
+9)Enter message then Click on Send icon.
+10) Enter valid user id and Password and click Login button in another Carrier User.
+11) Click on Chat Icon.
+12) Ensure message is displayed notification in Chat window.
+13)Click on Attach icon and upload any images.
+14) Click on Send icon.
+15)Ensure image is displayed notification in Chat window for other chat person.
+16)Click on Attach icon and upload any documents.
+17) Click on Send icon.
+18)Ensure document is displayed notification in Chat window for other chat person.
+19)Leave the chat</t>
   </si>
 </sst>
 </file>
@@ -860,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,17 +1295,59 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>80</v>
       </c>
     </row>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1317,7 +1317,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1331,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1345,7 +1345,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1331,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1345,7 +1345,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1317,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1331,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1345,7 +1345,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -644,7 +644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,7 +679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1063,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1078,7 +1078,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1093,7 +1093,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1107,7 +1107,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1121,7 +1121,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1135,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1149,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1163,7 +1163,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1177,7 +1177,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1190,8 +1190,8 @@
       <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1205,7 +1205,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1219,7 +1219,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1232,8 +1232,8 @@
       <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1246,8 +1246,8 @@
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1261,7 +1261,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1275,7 +1275,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1289,7 +1289,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -493,6 +493,24 @@
 17) Click on Send icon.
 18)Ensure document is displayed notification in Chat window for other chat person.
 19)Leave the chat</t>
+  </si>
+  <si>
+    <t>Load Validated Successfully</t>
+  </si>
+  <si>
+    <t>Field_Mapping_TC001</t>
+  </si>
+  <si>
+    <t>1) Enter valid user id and Password and click Login button in Scoular Shipper User.
+2) Click on Add New Load button.
+3) Enter valid details in required field.
+4) Select any value from drop down fields in Field Mapping at right hand side.
+5) Click on Save button.
+6) Select load and click Edit button.
+7) Enter valid details in required field.
+8) Select any value from drop down fields in Field Mapping at right hand side.
+9) Click on Save button.
+10)Select any Load and click Delete button.</t>
   </si>
 </sst>
 </file>
@@ -888,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1081,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1078,7 +1096,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1093,7 +1111,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1107,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1121,7 +1139,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1135,7 +1153,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1149,7 +1167,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1163,7 +1181,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1177,7 +1195,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1191,7 +1209,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1205,7 +1223,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1219,7 +1237,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1233,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1247,7 +1265,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1261,7 +1279,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1275,7 +1293,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1289,7 +1307,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
@@ -1303,7 +1321,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>80</v>
@@ -1317,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1331,7 +1349,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1345,14 +1363,28 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="32" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1096,7 +1096,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1111,7 +1111,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1125,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1139,7 +1139,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1153,7 +1153,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1167,7 +1167,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1181,7 +1181,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1195,7 +1195,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1209,7 +1209,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1223,7 +1223,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1237,7 +1237,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1251,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1265,7 +1265,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1279,7 +1279,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1293,7 +1293,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1307,7 +1307,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
@@ -1321,7 +1321,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>80</v>
@@ -1335,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1349,7 +1349,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1363,7 +1363,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>
@@ -1377,7 +1377,7 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>86</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -511,6 +511,15 @@
 8) Select any value from drop down fields in Field Mapping at right hand side.
 9) Click on Save button.
 10)Select any Load and click Delete button.</t>
+  </si>
+  <si>
+    <t>EditLoad_TC001</t>
+  </si>
+  <si>
+    <t>Load Edited Successfully</t>
+  </si>
+  <si>
+    <t>Edit Load</t>
   </si>
 </sst>
 </file>
@@ -906,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +971,7 @@
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -976,7 +985,7 @@
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -990,7 +999,7 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1005,7 +1014,7 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1020,7 +1029,7 @@
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1035,7 +1044,7 @@
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1050,7 +1059,7 @@
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1065,7 +1074,7 @@
       <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1081,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1096,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1111,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1125,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1139,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1153,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1167,7 +1176,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1181,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1195,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1223,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1237,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1251,7 +1260,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1265,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1279,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1293,7 +1302,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1307,7 +1316,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
@@ -1321,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>80</v>
@@ -1335,7 +1344,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1349,7 +1358,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1363,7 +1372,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>
@@ -1377,14 +1386,28 @@
         <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1176,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1232,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1260,7 +1260,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1288,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1302,7 +1302,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1316,7 +1316,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
@@ -1330,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>80</v>
@@ -1344,7 +1344,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1358,7 +1358,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1372,7 +1372,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>
@@ -1385,7 +1385,7 @@
       <c r="B32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" t="s">

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -671,7 +671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,7 +706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C11" sqref="C11:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1176,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1218,7 +1218,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1232,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1260,7 +1260,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1288,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1302,7 +1302,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1316,7 +1316,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
@@ -1330,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>80</v>
@@ -1344,7 +1344,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1358,7 +1358,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1372,7 +1372,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>
@@ -1386,7 +1386,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>86</v>
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>90</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$33</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1344,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1386,7 +1386,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>86</v>
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>90</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1176,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1218,7 +1218,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1232,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1260,7 +1260,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1288,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1302,7 +1302,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1316,7 +1316,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
@@ -1330,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>80</v>
@@ -1358,7 +1358,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1372,7 +1372,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>80</v>
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>90</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1176,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1190,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1204,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1218,7 +1218,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -1232,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>61</v>
@@ -1260,7 +1260,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>64</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>67</v>
@@ -1288,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>71</v>
@@ -1302,7 +1302,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
@@ -1316,7 +1316,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
@@ -1330,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>80</v>
@@ -1344,7 +1344,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>80</v>
@@ -1358,7 +1358,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>80</v>
@@ -1386,7 +1386,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>86</v>
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>90</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -285,9 +285,6 @@
 7) Click on Invite button and check invitation email sent successfully.
 8.) Clickon Resend Invitation and Check if invitation sent again.
 9.) CLick on cancel invite and check if invitation cancelled</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Loads_TC008</t>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -986,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1000,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1015,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1030,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1045,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1060,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1075,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1090,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1102,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1159,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1173,10 +1170,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1184,13 +1181,13 @@
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1198,13 +1195,13 @@
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1212,198 +1209,198 @@
     </row>
     <row r="20" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Edit Load</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -969,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -983,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1012,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1027,7 +1030,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1042,7 +1045,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1057,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1072,7 +1075,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1087,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1102,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1159,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1173,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1187,7 +1190,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1201,7 +1204,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1229,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1243,7 +1246,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1271,7 +1274,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1285,7 +1288,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1299,7 +1302,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1313,7 +1316,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1383,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1397,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>Edit Load</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -986,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1000,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1015,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1030,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1045,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1060,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1075,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1090,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1102,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1162,7 +1159,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1173,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1187,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1201,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1232,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1246,7 +1243,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1274,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1288,7 +1285,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1302,7 +1299,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1316,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1386,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1400,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Edit Load</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -969,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -983,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1012,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1027,7 +1030,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1042,7 +1045,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1057,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1072,7 +1075,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1087,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1102,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1117,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1131,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1145,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1159,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1173,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1187,7 +1190,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1201,7 +1204,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1215,7 +1218,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1229,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1243,7 +1246,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1257,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1271,7 +1274,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1285,7 +1288,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1299,7 +1302,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1313,7 +1316,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1341,7 +1344,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1355,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1369,7 +1372,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1383,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1397,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>Edit Load</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -986,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1000,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1015,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1030,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1045,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1060,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1075,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1090,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1102,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1159,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1173,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1187,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1201,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1218,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1232,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1246,7 +1243,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1260,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1274,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1288,7 +1285,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1302,7 +1299,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1316,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1344,7 +1341,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1358,7 +1355,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1372,7 +1369,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1386,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1400,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Edit Load</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1102,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1117,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1131,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1145,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1159,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1173,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1187,7 +1190,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1201,7 +1204,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1215,7 +1218,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1229,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1243,7 +1246,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1257,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1271,7 +1274,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1285,7 +1288,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1299,7 +1302,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1313,7 +1316,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1327,7 +1330,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>79</v>
@@ -1341,7 +1344,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1355,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1369,7 +1372,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1383,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1397,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -918,7 +918,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -986,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1000,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1015,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1060,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1075,7 +1075,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -986,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1000,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1015,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1060,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1075,7 +1075,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>Edit Load</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1102,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1159,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1173,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1187,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1201,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1218,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1232,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1246,7 +1243,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1260,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1274,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1288,7 +1285,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1302,7 +1299,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1316,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1330,7 +1327,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>79</v>
@@ -1344,7 +1341,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1358,7 +1355,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1372,7 +1369,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1386,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1400,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Edit Load</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -969,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -983,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1012,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1027,7 +1030,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1042,7 +1045,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1057,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1072,7 +1075,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1087,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1102,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1117,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1131,7 +1134,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1145,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1159,7 +1162,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1173,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1187,7 +1190,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1201,7 +1204,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1215,7 +1218,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1229,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1243,7 +1246,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1257,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1271,7 +1274,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1285,7 +1288,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1299,7 +1302,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1313,7 +1316,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1341,7 +1344,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1355,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1369,7 +1372,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1383,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1397,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>Edit Load</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -986,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1000,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1015,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1030,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1045,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1060,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1075,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1090,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1105,7 +1102,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1120,7 +1117,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1134,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1148,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1162,7 +1159,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1176,7 +1173,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1190,7 +1187,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1204,7 +1201,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1218,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1232,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1246,7 +1243,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1260,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1274,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1288,7 +1285,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1302,7 +1299,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1316,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1344,7 +1341,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1358,7 +1355,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1372,7 +1369,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1386,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1400,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Edit Load</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -969,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -983,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -997,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1012,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1027,7 +1030,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1042,7 +1045,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1057,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1072,7 +1075,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1215,7 +1218,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1229,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1243,7 +1246,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1257,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1271,7 +1274,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1285,7 +1288,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1299,7 +1302,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1313,7 +1316,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1327,7 +1330,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>79</v>
@@ -1341,7 +1344,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1355,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1369,7 +1372,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1383,7 +1386,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1397,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="6180"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>Edit Load</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -671,7 +668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,7 +703,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -972,7 +969,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -986,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1000,7 +997,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1015,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1030,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1045,7 +1042,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1060,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1075,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1105,7 +1102,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1218,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1232,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1246,7 +1243,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1260,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1274,7 +1271,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1288,7 +1285,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1302,7 +1299,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1316,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1330,7 +1327,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>79</v>
@@ -1344,7 +1341,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1358,7 +1355,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1372,7 +1369,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1386,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1400,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="6180"/>
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -517,6 +517,74 @@
   </si>
   <si>
     <t>Edit Load</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper user is able to add new Deal  on following conditions.
+a) Launch application and login applcation as Shipper admin
+b) Goto Deals and click on add icon
+c) Set mandatory fileds and clik on next.
+d.) Click on Deals and Drafts
+e.) Check whether the new deal widget added in Drafts</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper admin is able to add new Deal  on following conditions.
+a) Launch application and login applcation as Shipper user
+b) Goto Deals and click on add icon
+c) Set mandatory fileds and clik on next.
+d.) Click on Deals and Drafts
+e.) Check whether the new deal widget added in Drafts</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC003</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier is able to add new Deal  on following conditions.
+a) Launch application and login applcation as Shipper user
+b) Goto Deals and click on add icon
+c) Set mandatory fileds and clik on next.
+d.) Click on Deals and Drafts
+e.) Check whether the new deal widget added in Drafts</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper user is able to share new Deal  on following conditions.
+a) Login with valid user id and Password 
+b) Click on Deals menu
+c) Click on Add New Deal button from Opportunity tab
+d) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+e) Select one or more contacts(Carrier) in contact list screen and click share button
+f) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>Deal has been shared</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper admin is able to share all new Deal  on following conditions.
+a) Login withvalid user id and Password.
+b) Click on Deals menu
+c) Click on Add New Deal button from Opportunity tab
+d) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+e) Goto Drafts and check Deal widget available.
+f) Select Deal, click on three dots and click on share.
+g) Set ON Share All and click Share.
+h) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>Deal saved to draft</t>
   </si>
 </sst>
 </file>
@@ -668,7 +736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,7 +771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +1023,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -969,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -983,7 +1051,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -997,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1012,7 +1080,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1027,7 +1095,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1042,7 +1110,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1057,7 +1125,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1072,7 +1140,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1087,7 +1155,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1102,7 +1170,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1117,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1131,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1145,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1159,7 +1227,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1173,7 +1241,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1187,7 +1255,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1201,7 +1269,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1215,7 +1283,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1229,7 +1297,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1243,7 +1311,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1257,7 +1325,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1271,7 +1339,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1285,7 +1353,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1299,7 +1367,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1313,7 +1381,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1327,7 +1395,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>79</v>
@@ -1341,7 +1409,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1355,7 +1423,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1369,7 +1437,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1383,7 +1451,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1397,14 +1465,84 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F33"/>
+  <autoFilter ref="A1:F38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -522,69 +522,69 @@
     <t>CreateDeal_TC001</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC002</t>
+  </si>
+  <si>
+    <t>CreateDeal_TC003</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>Deal has been shared</t>
+  </si>
+  <si>
+    <t>ShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>Deal saved to draft</t>
+  </si>
+  <si>
     <t>Validate whehter Shipper user is able to add new Deal  on following conditions.
-a) Launch application and login applcation as Shipper admin
-b) Goto Deals and click on add icon
-c) Set mandatory fileds and clik on next.
-d.) Click on Deals and Drafts
-e.) Check whether the new deal widget added in Drafts</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>CreateDeal_TC002</t>
+1) Launch application and login applcation as Shipper admin.
+2) Goto Deals and click on add icon.
+3) Set mandatory fileds and clik on next.
+4) Click on Deals and Drafts.
+5) Check whether the new deal widget added in Drafts.</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper admin is able to share all new Deal  on following conditions.
+1) Login withvalid user id and Password.
+2) Click on Deals menu
+3) Click on Add New Deal button from Opportunity tab
+4) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+5) Goto Drafts and check Deal widget available.
+6) Select Deal, click on three dots and click on share.
+7) Set ON Share All and click Share.
+8) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper user is able to share new Deal  on following conditions.
+1) Login with valid user id and Password .
+2) Click on Deals menu.
+3) Click on Add New Deal button from Opportunity tab.
+4) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button.
+5) Select one or more contacts(Carrier) in contact list screen and click share button.
+6) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
   </si>
   <si>
     <t>Validate whehter Shipper admin is able to add new Deal  on following conditions.
-a) Launch application and login applcation as Shipper user
-b) Goto Deals and click on add icon
-c) Set mandatory fileds and clik on next.
-d.) Click on Deals and Drafts
-e.) Check whether the new deal widget added in Drafts</t>
-  </si>
-  <si>
-    <t>CreateDeal_TC003</t>
+1) Launch application and login applcation as Shipper user.
+2) Goto Deals and click on add icon.
+3) Set mandatory fileds and clik on next.
+4) Click on Deals and Drafts.
+5) Check whether the new deal widget added in Drafts.</t>
   </si>
   <si>
     <t>Validate whehter carrier is able to add new Deal  on following conditions.
-a) Launch application and login applcation as Shipper user
-b) Goto Deals and click on add icon
-c) Set mandatory fileds and clik on next.
-d.) Click on Deals and Drafts
-e.) Check whether the new deal widget added in Drafts</t>
-  </si>
-  <si>
-    <t>ShareDeal_TC001</t>
-  </si>
-  <si>
-    <t>Validate whehter Shipper user is able to share new Deal  on following conditions.
-a) Login with valid user id and Password 
-b) Click on Deals menu
-c) Click on Add New Deal button from Opportunity tab
-d) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
-e) Select one or more contacts(Carrier) in contact list screen and click share button
-f) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
-  </si>
-  <si>
-    <t>Deal has been shared</t>
-  </si>
-  <si>
-    <t>ShareDeal_TC002</t>
-  </si>
-  <si>
-    <t>Validate whehter Shipper admin is able to share all new Deal  on following conditions.
-a) Login withvalid user id and Password.
-b) Click on Deals menu
-c) Click on Add New Deal button from Opportunity tab
-d) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
-e) Goto Drafts and check Deal widget available.
-f) Select Deal, click on three dots and click on share.
-g) Set ON Share All and click Share.
-h) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
-  </si>
-  <si>
-    <t>Deal saved to draft</t>
+1) Launch application and login applcation as Shipper user.
+2) Goto Deals and click on add icon.
+3) Set mandatory fileds and clik on next.
+4) Click on Deals and Drafts.
+5) Check whether the new deal widget added in Drafts.</t>
   </si>
 </sst>
 </file>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1065,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1080,7 +1080,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1095,7 +1095,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1110,7 +1110,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1125,7 +1125,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1140,7 +1140,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1155,7 +1155,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1170,7 +1170,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1185,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
@@ -1199,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1213,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
@@ -1227,7 +1227,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1241,7 +1241,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>39</v>
@@ -1255,7 +1255,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>39</v>
@@ -1269,7 +1269,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>39</v>
@@ -1283,7 +1283,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>64</v>
@@ -1297,7 +1297,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1311,7 +1311,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1325,7 +1325,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1339,7 +1339,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1353,7 +1353,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1367,7 +1367,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>74</v>
@@ -1381,7 +1381,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>77</v>
@@ -1395,7 +1395,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>79</v>
@@ -1409,7 +1409,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>79</v>
@@ -1423,7 +1423,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>79</v>
@@ -1437,7 +1437,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>79</v>
@@ -1451,7 +1451,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -1465,7 +1465,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>
@@ -1476,69 +1476,69 @@
         <v>91</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -585,6 +585,70 @@
 3) Set mandatory fileds and clik on next.
 4) Click on Deals and Drafts.
 5) Check whether the new deal widget added in Drafts.</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC001</t>
+  </si>
+  <si>
+    <t>Deal has been duplicated</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC002</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC001</t>
+  </si>
+  <si>
+    <t>Deal has been withdrawn</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC002</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier user can duplicate deal in Opportunity.
+1) Enter valid user id and Password and click Login.
+2)Create deal and share with carrier user.
+3) Login as carrier user.
+4) Check shared deal in opportunity.
+5) Duplicate deal and check whehter another deal created.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a Shipper user can duplicate deal in Draft.
+1) Enter valid user id and Password and click Login.
+2)Click on Deals menu.
+3)Select any deal in Opportunity/Drafts/Booked/Withdrawn tab &amp;  click ellipsis icon and click Duplicate option.
+4) Now Duplicate popup message has been displayed.
+5) Enter number of deals to copied in pop up window.
+6) Click on Submit button .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a Shipper user can withdraw deal in Opportunity.
+1) Enter valid user id and Password and click Login(Shipper user).
+2)Create deal and share with carrier user.
+3) Check shared deal in opportunity.
+4) withdraw deal and check whehter deal is displayed in withdraw tab.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a Shipper admin user can withdraw deal in Opportunity.
+1) Enter valid user id and Password and click Login(Shipper admin).
+2)Create deal and share with all user.
+3) Check shared deal in opportunity.
+4) withdraw deal and check whehter deal is displayed in withdraw tab.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier user can withdraw deal in Opportunity.
+1) Enter valid user id and Password and click Login.
+2)Create deal and share with all user.
+3) Check shared deal in opportunity.
+4) withdraw deal and check whehter deal is displayed in withdraw tab.
+</t>
   </si>
 </sst>
 </file>
@@ -980,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,6 +1605,76 @@
         <v>96</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1557,7 @@
         <v>102</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>98</v>
@@ -1571,7 +1571,7 @@
         <v>103</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>98</v>
@@ -1599,7 +1599,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>96</v>
@@ -1669,7 +1669,7 @@
         <v>115</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>108</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,7 @@
         <v>99</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>98</v>
@@ -1585,7 +1585,7 @@
         <v>101</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>96</v>
@@ -1613,7 +1613,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>105</v>
@@ -1641,7 +1641,7 @@
         <v>113</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>108</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -649,6 +649,117 @@
 3) Check shared deal in opportunity.
 4) withdraw deal and check whehter deal is displayed in withdraw tab.
 </t>
+  </si>
+  <si>
+    <t>EditDeal_TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper user can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login(Shipper user).
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Edit deal and check updated details in opportunity
+</t>
+  </si>
+  <si>
+    <t>Deal has been Edited</t>
+  </si>
+  <si>
+    <t>EditDeal_TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper admin can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Edit deal and check updated details in opportunity
+</t>
+  </si>
+  <si>
+    <t>EditDeal_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Edit deal and check updated details in opportunity
+</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a Shipper user can reshare deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Again share deal with carrier user and check whether reshare popup displayed.
+</t>
+  </si>
+  <si>
+    <t>Deal has been ReShared</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a carrier user can reshare deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Again share deal with shipper user and check whether reshare popup displayed.
+</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a Shipper admin can reshare deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and share with carrier user.
+c) Check shared deal in opportunity
+d) Again share deal with carrier user and check whether reshare popup displayed.
+</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper user is able to discard Deal  on following conditions.
+a) Launch application and login applcation as Shipper admin
+b) Goto Deals and click on add icon
+c) Set mandatory fileds and clik on next.
+d) Click on Deals and Drafts.
+e) Check whether the new deal widget added in Drafts.
+f) Discard deal and check whether deal discarded successfully</t>
+  </si>
+  <si>
+    <t>Deal has been discarded</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper admin is able to discard Deal  on following conditions.
+a) Launch application and login applcation as Shipper admin
+b) Goto Deals and click on add icon
+c) Set mandatory fileds and clik on next.
+d) Click on Deals and Drafts.
+e) Check whether the new deal widget added in Drafts.
+f) Discard deal and check whether deal discarded successfully</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC003</t>
+  </si>
+  <si>
+    <t>Validate whehter carrier user is able to discard Deal  on following conditions.
+a) Launch application and login applcation as Shipper admin
+b) Goto Deals and click on add icon
+c) Set mandatory fileds and clik on next.
+d) Click on Deals and Drafts.
+e) Check whether the new deal widget added in Drafts.
+f) Discard deal and check whether deal discarded successfully</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,6 +1786,132 @@
         <v>108</v>
       </c>
     </row>
+    <row r="44" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -760,6 +760,99 @@
 d) Click on Deals and Drafts.
 e) Check whether the new deal widget added in Drafts.
 f) Discard deal and check whether deal discarded successfully</t>
+  </si>
+  <si>
+    <t>EditDeal_TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper user can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and check in Draft.
+C) select deal and edit.
+d) check whether deal is successfully edited in Draft.
+</t>
+  </si>
+  <si>
+    <t>EditDeal_TC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper admin can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and check in Draft.
+C) select deal and edit.
+d) check whether deal is successfully edited in Draft.
+</t>
+  </si>
+  <si>
+    <t>EditDeal_TC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate whether a shipper carrier can edit deal in Opportunity.
+a) Enter valid user id and Password and click Login.
+b)Create deal and check in Draft.
+C) select deal and edit.
+d) check whether deal is successfully edited in Draft.
+</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper admin is able to share all new Deal  on following conditions.
+a) Login withvalid user id and Password.
+b) Click on Deals menu
+c) Click on Add New Deal button from Opportunity tab
+d) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+e) Goto Drafts and check Deal widget available.
+f) Select Deal, click on three dots and click on share.
+g) Set ON Share All and click Share.
+h) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper user  is able to share all new Deal  on following conditions.
+a) Login withvalid user id and Password.
+b) Click on Deals menu
+c) Click on Add New Deal button from Opportunity tab
+d) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+e) Goto Drafts and check Deal widget available.
+f) Select Deal, click on three dots and click on share.
+g) Set ON Share All and click Share.
+h) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>Validate whehter Shipper carrier  is able to share all new Deal  on following conditions.
+a) Login withvalid user id and Password.
+b) Click on Deals menu
+c) Click on Add New Deal button from Opportunity tab
+d) Select Dealname,EquipmentTypes &amp; # of Loads and click Next button
+e) Goto Drafts and check Deal widget available.
+f) Select Deal, click on three dots and click on share.
+g) Set ON Share All and click Share.
+h) Login as Carrier user and check opportunity tab whether Deal is displayed.</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate counter as deal as shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Select any deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on Counter menu
+7) Update any values and Click on the counter button
+8) Observe the updated values are displayed in chat channel
+</t>
+  </si>
+  <si>
+    <t>Deal has been countered</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1817,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>105</v>
@@ -1752,7 +1845,7 @@
         <v>113</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>108</v>
@@ -1828,92 +1921,190 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>132</v>
+      <c r="D59" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F38"/>
+  <autoFilter ref="A1:F59"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="C55" sqref="C55:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="154">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -853,6 +853,12 @@
   </si>
   <si>
     <t>Deal has been countered</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>es</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,7 +1893,7 @@
         <v>117</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>118</v>
@@ -2013,7 +2019,7 @@
         <v>131</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>132</v>
@@ -2097,7 +2103,7 @@
         <v>150</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>151</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -856,9 +856,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>es</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1254,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,7 +2016,7 @@
         <v>131</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>132</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -856,6 +856,29 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Verify the Chat feature in Deals. 1) Enter valid shipper user id and Password and click Login button.
+2) Click on Deals menu.
+3) Select any deal in opportunity tab.
+4) Click on the deal cards in the Opportunity tab.
+5) Click on the Carrier contact name in detailed view.
+6) Enter message then  Click on Send icon.
+7) Enter valid carrier user id and Password and click Login button in another  Carrier User.
+8) Click on Chat Icon.
+9) Ensure message is displayed notification in Chat window.</t>
+  </si>
+  <si>
+    <t>Chat verified Successfully</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>Deals_Chat_CarrierUser_TC003</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,6 +2129,48 @@
         <v>151</v>
       </c>
     </row>
+    <row r="60" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F59"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$58</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="174">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -879,6 +879,104 @@
   </si>
   <si>
     <t>Deals_Chat_CarrierUser_TC003</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate counter as deal as shipper admin on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Select any deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on Counter menu
+7) Update any values and Click on the counter button
+8) Observe the updated values are displayed in chat channel
+</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate counter as deal as carrier on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Select any deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on Counter menu
+7) Update any values and Click on the counter button
+8) Observe the updated values are displayed in chat channel
+</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate accept deal as carrier user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal and share deal with carrier
+3) login as carrier and Select deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on accept
+7) Update any values and Click on the accept button
+8) Observe the updated values are displayed in chat channel
+9) navigate to Booked tab and check deal displayed.
+</t>
+  </si>
+  <si>
+    <t>Deal has been accepted</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate accept deal as shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal and share deal with carrier
+3) login as carrier and Select deal in opportunity tab
+4) Click on any contacts from the chat listing
+5) Click on '+' button in chat channel's bottom menu
+6) Click on accept
+7) Update any values and Click on the accept button
+8) Observe the updated values are displayed in chat channel
+9) navigate to Booked tab and check deal displayed.
+</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001</t>
+  </si>
+  <si>
+    <t>Validate date filter in opportunity for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select date filter in opportunity and set from date and to date as current date.
+4) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>Deal has been filtered</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002</t>
+  </si>
+  <si>
+    <t>Validate date filter in opportunity for shipper admin on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with all
+3) Select date filter in opportunity and set from date and to date as current date.
+4) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003</t>
+  </si>
+  <si>
+    <t>Validate date filter in opportunity for carrier on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with shipper user.
+3) Select date filter in opportunity and set from date and to date as current date.
+4) check whether newly created deal displayed correctly.</t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D62"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,23 +2213,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>154</v>
@@ -2145,7 +2243,7 @@
     </row>
     <row r="61" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>154</v>
@@ -2157,22 +2255,120 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>155</v>
+      <c r="D68" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F59"/>
+  <autoFilter ref="A1:F58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="173">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -853,9 +853,6 @@
   </si>
   <si>
     <t>Deal has been countered</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Deals_Chat_ShipperUser_TC001</t>
@@ -1374,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2134,7 @@
         <v>131</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>132</v>
@@ -2215,44 +2212,44 @@
     </row>
     <row r="59" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -2263,7 +2260,7 @@
         <v>150</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>151</v>
@@ -2271,13 +2268,13 @@
     </row>
     <row r="63" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="C63" s="7" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>151</v>
@@ -2285,13 +2282,13 @@
     </row>
     <row r="64" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="C64" s="7" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>151</v>
@@ -2299,72 +2296,72 @@
     </row>
     <row r="65" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="C66" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="C68" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C69" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -974,6 +974,154 @@
 2) Create deal with valid details and share with shipper user.
 3) Select date filter in opportunity and set from date and to date as current date.
 4) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC001</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC002</t>
+  </si>
+  <si>
+    <t>Verify the Chat Connection in Deals.
+1) Enter valid shipper user id and Password and click Login button.
+2) Click on Deals menu.
+3) Click on Add deal (+) button.
+4) Enter data partially and click on next button.
+5) Click on toggle switch at the top of carrier contact listing screen .
+6) Click on  public deal card in opportunity view.
+7) Observe the deal detailed view with deal card and no chat channels will be listed.
+8) Login with any unfamiliar carrier contact and ensure the public deal shared by shipper are displayed on opportunity tab.
+9)  Click on the public deal card .
+10) Observe the banner at the top of the chat channel with T&amp;C and 'Get Started' button in grey.</t>
+  </si>
+  <si>
+    <t>Chat Connection successfully</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001</t>
+  </si>
+  <si>
+    <t>Validate location filter in opportunity for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select location filter in opportunity, select Outbound and set origin.
+4) View deal displayed correctly.
+5) Select location filter in opportunity, select Return and set destination.
+6) check whether newly created deal displayed correctly.
+7) Select location filter in opportunity, select Return and set destination.
+8) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002</t>
+  </si>
+  <si>
+    <t>Validate location filter in opportunity for shipper admin on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select location filter in opportunity, select Outbound and set origin.
+4) View deal displayed correctly.
+5) Select location filter in opportunity, select Return and set destination.
+6) check whether newly created deal displayed correctly.
+7) Select location filter in opportunity, select Return and set destination.
+8) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003</t>
+  </si>
+  <si>
+    <t>Validate location filter in opportunity for carrier on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Create deal with valid details and share with carrier
+3) Select location filter in opportunity, select Outbound and set origin.
+4) View deal displayed correctly.
+5) Select location filter in opportunity, select Return and set destination.
+6) check whether newly created deal displayed correctly.
+7) Select location filter in opportunity, select Return and set destination.
+8) check whether newly created deal displayed correctly.</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC001</t>
+  </si>
+  <si>
+    <t>Validate export deal for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Goto deals and click on Booked tab
+3) Click Export icon and select format.
+4) Click on download and click on Export deals
+5) Check whether the correct file downloaded successfully</t>
+  </si>
+  <si>
+    <t>Deals has been exported</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC002</t>
+  </si>
+  <si>
+    <t>Validate export deal as Email for shipper user on following conditions.
+1) Enter valid shipper user id and Password and click Login button
+2) Goto deals and click on Booked tab
+3) Click Export and set send to email
+4) set Email address and clik on export deal
+5) Check whether Email request sent successfully</t>
+  </si>
+  <si>
+    <t>Export request has been sent</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate negotiate deal in withdraw tab based on following conditions:
+1) Enter valid shipper user id and Password and click Login button.
+2) Click on Deals menu.
+3) Click on withdrawn tab.
+4) Click on any card in withdrawn tab.
+5) Ensure the chat channel do not allow message &amp; menu options.
+6) Ensure the chat channel shows the history between the two participants.
+</t>
+  </si>
+  <si>
+    <t>Unable to negotiate deal</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate negotiate deal in withdraw tab based on following conditions:
+1) Enter valid shipper admin id and Password and click Login button.
+2) Click on Deals menu.
+3) Click on withdrawn tab.
+4) Click on any card in withdrawn tab.
+5) Ensure the chat channel do not allow message &amp; menu options.
+6) Ensure the chat channel shows the history between the two participants.
+</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate negotiate deal in withdraw tab based on following conditions:
+1) Enter valid carrier  id and Password and click Login button.
+2) Click on Deals menu.
+3) Click on withdrawn tab.
+4) Click on any card in withdrawn tab.
+5) Ensure the chat channel do not allow message &amp; menu options.
+6) Ensure the chat channel shows the history between the two participants.
+</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate negotiate deal on following conidtions:
+1) Enter valid shipper user id and Password and click Login button
+2) Click on Deals menu
+3) Click on Booked tab
+4) Click on any deal card on Booked screen
+5) Ensure the Bottom menu "+" has only Mute Option
+6) Observe the chat history and  Mute options is displayed in detailed view
+7) Ensure messaging  is allowed between shipper and carrier 
+</t>
   </si>
 </sst>
 </file>
@@ -1044,15 +1192,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1060,10 +1201,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,30 +1529,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1417,34 +1561,40 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1453,13 +1603,14 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1468,73 +1619,78 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1543,13 +1699,14 @@
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1558,13 +1715,14 @@
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1573,12 +1731,14 @@
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1587,12 +1747,14 @@
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1601,12 +1763,14 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1615,753 +1779,1019 @@
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="7" t="s">
+      <c r="C61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="7" t="s">
+      <c r="C66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="C67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="7" t="s">
+      <c r="C68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>168</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:F80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2228,7 @@
         <v>117</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>118</v>
@@ -2644,7 +2644,7 @@
         <v>175</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>176</v>
@@ -2660,7 +2660,7 @@
         <v>175</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>176</v>
@@ -2788,7 +2788,7 @@
         <v>197</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>191</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="197">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>CreateDeal_TC001</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>CreateDeal_TC002</t>
@@ -1515,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1572,7 +1569,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1588,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1604,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1620,7 +1617,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1636,7 +1633,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1652,7 +1649,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1668,7 +1665,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1684,7 +1681,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1700,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1716,7 +1713,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -1732,7 +1729,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -1748,7 +1745,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
@@ -1764,7 +1761,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -1780,7 +1777,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -1796,7 +1793,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
@@ -1812,7 +1809,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -1828,7 +1825,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -1844,7 +1841,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>64</v>
@@ -1860,7 +1857,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1876,7 +1873,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1892,7 +1889,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1908,7 +1905,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1924,7 +1921,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1940,7 +1937,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>74</v>
@@ -1956,7 +1953,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>77</v>
@@ -1972,7 +1969,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>79</v>
@@ -1988,7 +1985,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>79</v>
@@ -2004,7 +2001,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>79</v>
@@ -2020,7 +2017,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>79</v>
@@ -2036,7 +2033,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>85</v>
@@ -2052,7 +2049,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>89</v>
@@ -2065,733 +2062,733 @@
         <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C49" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C51" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -1119,6 +1119,9 @@
 6) Observe the chat history and  Mute options is displayed in detailed view
 7) Ensure messaging  is allowed between shipper and carrier 
 </t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1512,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C80"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1556,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1569,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1585,7 +1588,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1601,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1617,7 +1620,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1633,7 +1636,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1649,7 +1652,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1665,7 +1668,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1681,7 +1684,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1841,7 +1844,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>64</v>
@@ -1857,7 +1860,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
@@ -1873,7 +1876,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
@@ -1889,7 +1892,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1905,7 +1908,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
@@ -1921,7 +1924,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>70</v>
@@ -1937,7 +1940,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>74</v>
@@ -1953,7 +1956,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>77</v>
@@ -1969,7 +1972,7 @@
         <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>79</v>
@@ -1985,7 +1988,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>79</v>
@@ -2001,7 +2004,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>79</v>
@@ -2017,7 +2020,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>79</v>
@@ -2033,7 +2036,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>85</v>
@@ -2049,7 +2052,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>89</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1796,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
@@ -1812,7 +1812,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Automation Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Automation Tests'!$A$1:$F$79</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="242">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Loads_TC001</t>
   </si>
   <si>
     <t>Loads_TC002</t>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>Load submitted successfully</t>
-  </si>
-  <si>
-    <t>Load added successfully</t>
   </si>
   <si>
     <t>Loads_TC003</t>
@@ -165,17 +159,6 @@
     <t>Dispatch sent successfully and carrier has control over load.</t>
   </si>
   <si>
-    <t>Validate whehter Global admin is able to add new load using Shipper platform on following conditions.
-a) Launch and login applcation as Global admin
-b) Click on add new load button.
-C) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity.
-d) click on save and search for record in AG grid.
-e) click on Edit and set Shipper contact and click on save.
-f) Search for edited record in AG grid
-g) Click on delete button.
-h) Check whether record exist in AG grid after delete.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate whehter carrier user can add Scoular loads for payment using full submit.
 1) Enter valid user id and Password and click Login button.
 2) Click on Add New Load button from Load menu.
@@ -450,9 +433,6 @@
   </si>
   <si>
     <t>Commodity added and edited successfully</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Chat Validated successfully</t>
@@ -1121,7 +1101,266 @@
 </t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>User_TC010</t>
+  </si>
+  <si>
+    <t>Invitation not sent</t>
+  </si>
+  <si>
+    <t>User_TC011</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as Carrier.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter invalid details in required field (Full Name, Email, Role as Carrier, Driver Full and limited).
+6) Click on Invite button and check error message displayed correctly.</t>
+  </si>
+  <si>
+    <t>To validate invite via email based on following conditions
+1) Launch application and login as Shipper admin.
+2) Click on Users Menu and customize columns
+3) Click on Add User button.
+4) Enter invalid details in required field (Full Name, Email, Role, as Shipper user and shipper adminn).
+6) Click on Invite button and check error message displayed correctly.</t>
+  </si>
+  <si>
+    <t>AddShippers_TC002</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new Shipper on following conditions.
+a.) Launch and login applcation as Global admin
+b.) Click on add new Shipper button.
+C.) Set Shipper Name, Billing Email and Carrier
+d.) click on cancel
+e.) Customize Shipper webtable with required columns
+f.) Search for record and check if record not saved.</t>
+  </si>
+  <si>
+    <t>Add shipper cancelled</t>
+  </si>
+  <si>
+    <t>Loads_TC001</t>
+  </si>
+  <si>
+    <t>Validate whehter Global admin is able to add new load using Shipper platform on following conditions.
+a) Launch and login applcation as Global admin
+b) Click on add new load button.
+C) Set Carrier Name, Load Date, Shipper, Rate, Rate UOM and Commodity.
+d) click on save and search for record in AG grid.
+e) click on Edit and set Shipper contact and click on save.
+f) Search for edited record in AG grid
+g) Click on delete button.
+h) Check whether record exist in AG grid after delete.</t>
+  </si>
+  <si>
+    <t>Load added successfully</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_Carrier_TC001</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Carrier.
+1) Enter valid user id and Password and click Login button in Carrier User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and enter message then .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure message is displayed notification in Chat window.
+9)Enter message then Click on Send icon.</t>
+  </si>
+  <si>
+    <t>Invited Chat successfully</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sent Chat successfully</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_Carrier_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_Carrier_TC003</t>
+  </si>
+  <si>
+    <t>ReSent Chat successfully</t>
+  </si>
+  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Carrier_TC004</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Carrier.
+1) Enter valid user id and Password and click Login button in Carrier User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and attach image and doc .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure attachment is displayed notification in Chat window.</t>
+  </si>
+  <si>
+    <t>Image sent successfully</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Carrier_TC005</t>
+  </si>
+  <si>
+    <t>Document sent successfully</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_Carrrier_TC006</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Carrier.
+1) Enter valid user id and Password and click Login button in Carrier User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name, Invite chat and send message .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure message displayed and leave chat.</t>
+  </si>
+  <si>
+    <t>Left chat successfully</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_ShipperAdmin_TC001</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper.
+1) Enter valid user id and Password and click Login button in Carrier User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and enter message then .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure message is displayed notification in Chat window.
+9)Enter message then Click on Send icon.</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_ShipperAdmin_TC003</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_ShipperAdmin_TC004</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_ShipperAdmin_TC005</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper admin.
+1) Enter valid user id and Password and click Login button in Carrier User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and attach doc .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure attachment is displayed notification in Chat window.</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper admin.
+1) Enter valid user id and Password and click Login button in Carrier User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and attach image .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure attachment is displayed notification in Chat window.</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_ShipperAdmin_TC006</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper admin.
+1) Enter valid user id and Password and click Login button in shipper User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name, Invite chat and send message .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure message displayed and leave chat.</t>
+  </si>
+  <si>
+    <t>Invite_Chat_to_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper user.
+1) Enter valid user id and Password and click Login button.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and enter message then .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure message is displayed notification in Chat window.
+9)Enter message then Click on Send icon.</t>
+  </si>
+  <si>
+    <t>Send_Chat_to_ShipperUser_TC002</t>
+  </si>
+  <si>
+    <t>ReSend_Chat_to_ShipperUser_TC003</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Shipperuser_TC004</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper user.
+1) Enter valid user id and Password and click Login button.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and attach image .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure attachment is displayed notification in Chat window.</t>
+  </si>
+  <si>
+    <t>Attachment_Chat_to_Shipperuser_TC005</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper user.
+1) Enter valid user id and Password and click Login button.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name and attach document .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure attachment is displayed notification in Chat window.</t>
+  </si>
+  <si>
+    <t>Leave_Chat_With_ShipperUser_TC006</t>
+  </si>
+  <si>
+    <t>Validate Chat Functionality for Shipper user.
+1) Enter valid user id and Password and click Login button in shipper User.
+2) Click on Chat Icon.
+3) Click on Compose Chat icon.
+4) Search the name, Invite chat and send message .
+5) Click on Send icon.
+6) Enter valid user id and Password and click Login button in another Carrier User.
+7) Click on Chat Icon.
+8) Ensure message displayed and leave chat.</t>
   </si>
 </sst>
 </file>
@@ -1513,17 +1752,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1539,10 +1778,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -1553,13 +1792,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1569,1233 +1808,1569 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="181.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>194</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>196</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>193</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>193</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>193</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>193</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>177</v>
+        <v>121</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>179</v>
+        <v>123</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>181</v>
+        <v>125</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>183</v>
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>186</v>
+        <v>130</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>189</v>
+        <v>138</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>192</v>
+        <v>140</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>194</v>
+        <v>142</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>196</v>
+        <v>147</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="C100" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F58"/>
+  <autoFilter ref="A1:F79"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestData/Driver.xlsx
+++ b/TestData/Driver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="241">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -1192,9 +1192,6 @@
   </si>
   <si>
     <t>ReSent Chat successfully</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Attachment_Chat_to_Carrier_TC004</t>
@@ -1754,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +2320,7 @@
         <v>206</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>207</v>
@@ -2339,7 +2336,7 @@
         <v>206</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>209</v>
@@ -2355,7 +2352,7 @@
         <v>206</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>212</v>
@@ -2365,61 +2362,61 @@
     </row>
     <row r="38" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>207</v>
@@ -2429,13 +2426,13 @@
     </row>
     <row r="42" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>209</v>
@@ -2445,13 +2442,13 @@
     </row>
     <row r="43" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>212</v>
@@ -2461,61 +2458,61 @@
     </row>
     <row r="44" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>207</v>
@@ -2525,10 +2522,10 @@
     </row>
     <row r="48" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>208</v>
@@ -2541,10 +2538,10 @@
     </row>
     <row r="49" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>208</v>
@@ -2557,48 +2554,48 @@
     </row>
     <row r="50" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
